--- a/src/main/resources/arquivos/ORÇAMENTO NF11000 2025-12-10 GRAFITE.xlsx
+++ b/src/main/resources/arquivos/ORÇAMENTO NF11000 2025-12-10 GRAFITE.xlsx
@@ -126,22 +126,22 @@
     <t>Socia-gerente.</t>
   </si>
   <si>
-    <t>Conselho esc do centro de excelência manoel messias feitosa</t>
+    <t>Conselho Esc do Centro de Excelência Manoel Messias Feitosa</t>
   </si>
   <si>
     <t>01.904.169/0001-39</t>
   </si>
   <si>
-    <t>Av 26 de setembro,500</t>
-  </si>
-  <si>
-    <t>Nossa senhora da glória</t>
+    <t>Av 26 de Setembro,500</t>
+  </si>
+  <si>
+    <t>Nossa Senhora da Glória</t>
   </si>
   <si>
     <t>49680-000</t>
   </si>
   <si>
-    <t>10 de dezembro de 2025</t>
+    <t>10 de Dezembro de 2025</t>
   </si>
   <si>
     <t>caderno</t>
@@ -931,7 +931,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="17" t="n">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="F12" s="16">
         <f>D12*E12</f>
@@ -952,7 +952,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="17" t="n">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" ref="F13:F53" si="0">D13*E13</f>
@@ -973,7 +973,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="17" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
